--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7800876666666667</v>
+        <v>0.2026263333333334</v>
       </c>
       <c r="H2">
-        <v>2.340263</v>
+        <v>0.6078790000000001</v>
       </c>
       <c r="I2">
-        <v>0.004173077125706292</v>
+        <v>0.001145895592151193</v>
       </c>
       <c r="J2">
-        <v>0.004173077125706292</v>
+        <v>0.001145895592151193</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N2">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O2">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P2">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q2">
-        <v>20.37936072339156</v>
+        <v>5.016101065400444</v>
       </c>
       <c r="R2">
-        <v>183.414246510524</v>
+        <v>45.144909588604</v>
       </c>
       <c r="S2">
-        <v>0.003020832591263864</v>
+        <v>0.0008894924108090921</v>
       </c>
       <c r="T2">
-        <v>0.003020832591263864</v>
+        <v>0.000889492410809092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7800876666666667</v>
+        <v>0.2026263333333334</v>
       </c>
       <c r="H3">
-        <v>2.340263</v>
+        <v>0.6078790000000001</v>
       </c>
       <c r="I3">
-        <v>0.004173077125706292</v>
+        <v>0.001145895592151193</v>
       </c>
       <c r="J3">
-        <v>0.004173077125706292</v>
+        <v>0.001145895592151193</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N3">
         <v>11.455626</v>
       </c>
       <c r="O3">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P3">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q3">
-        <v>2.978797518848668</v>
+        <v>0.7737371641393335</v>
       </c>
       <c r="R3">
-        <v>26.80917766963801</v>
+        <v>6.963634477254001</v>
       </c>
       <c r="S3">
-        <v>0.0004415471490911644</v>
+        <v>0.0001372048382777039</v>
       </c>
       <c r="T3">
-        <v>0.0004415471490911644</v>
+        <v>0.0001372048382777038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7800876666666667</v>
+        <v>0.2026263333333334</v>
       </c>
       <c r="H4">
-        <v>2.340263</v>
+        <v>0.6078790000000001</v>
       </c>
       <c r="I4">
-        <v>0.004173077125706292</v>
+        <v>0.001145895592151193</v>
       </c>
       <c r="J4">
-        <v>0.004173077125706292</v>
+        <v>0.001145895592151193</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N4">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O4">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P4">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q4">
-        <v>4.794558435025667</v>
+        <v>0.6721934087053334</v>
       </c>
       <c r="R4">
-        <v>43.151025915231</v>
+        <v>6.049740678348</v>
       </c>
       <c r="S4">
-        <v>0.0007106973853512631</v>
+        <v>0.0001191983430643968</v>
       </c>
       <c r="T4">
-        <v>0.0007106973853512631</v>
+        <v>0.0001191983430643968</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>499.19754</v>
       </c>
       <c r="I5">
-        <v>0.8901520194024567</v>
+        <v>0.9410232311014506</v>
       </c>
       <c r="J5">
-        <v>0.8901520194024567</v>
+        <v>0.9410232311014505</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N5">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O5">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P5">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q5">
-        <v>4347.086947018213</v>
+        <v>4119.282476017893</v>
       </c>
       <c r="R5">
-        <v>39123.78252316391</v>
+        <v>37073.54228416103</v>
       </c>
       <c r="S5">
-        <v>0.6443686877546441</v>
+        <v>0.7304618572521311</v>
       </c>
       <c r="T5">
-        <v>0.6443686877546441</v>
+        <v>0.730461857252131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>499.19754</v>
       </c>
       <c r="I6">
-        <v>0.8901520194024567</v>
+        <v>0.9410232311014506</v>
       </c>
       <c r="J6">
-        <v>0.8901520194024567</v>
+        <v>0.9410232311014505</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N6">
         <v>11.455626</v>
       </c>
       <c r="O6">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P6">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q6">
-        <v>635.4022575955602</v>
+        <v>635.4022575955601</v>
       </c>
       <c r="R6">
-        <v>5718.620318360041</v>
+        <v>5718.62031836004</v>
       </c>
       <c r="S6">
-        <v>0.09418567512297656</v>
+        <v>0.1126742620559809</v>
       </c>
       <c r="T6">
-        <v>0.09418567512297656</v>
+        <v>0.1126742620559809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>499.19754</v>
       </c>
       <c r="I7">
-        <v>0.8901520194024567</v>
+        <v>0.9410232311014506</v>
       </c>
       <c r="J7">
-        <v>0.8901520194024567</v>
+        <v>0.9410232311014505</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N7">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O7">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P7">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q7">
-        <v>1022.71914573322</v>
+        <v>552.01330532872</v>
       </c>
       <c r="R7">
-        <v>9204.47231159898</v>
+        <v>4968.11974795848</v>
       </c>
       <c r="S7">
-        <v>0.1515976565248361</v>
+        <v>0.09788711179333867</v>
       </c>
       <c r="T7">
-        <v>0.1515976565248361</v>
+        <v>0.09788711179333869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.75417333333333</v>
+        <v>10.226113</v>
       </c>
       <c r="H8">
-        <v>59.26252</v>
+        <v>30.678339</v>
       </c>
       <c r="I8">
-        <v>0.105674903471837</v>
+        <v>0.05783087330639819</v>
       </c>
       <c r="J8">
-        <v>0.105674903471837</v>
+        <v>0.05783087330639819</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N8">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O8">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P8">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q8">
-        <v>516.066900368551</v>
+        <v>253.1517768217293</v>
       </c>
       <c r="R8">
-        <v>4644.60210331696</v>
+        <v>2278.365991395564</v>
       </c>
       <c r="S8">
-        <v>0.07649659540676693</v>
+        <v>0.04489075904370539</v>
       </c>
       <c r="T8">
-        <v>0.07649659540676693</v>
+        <v>0.04489075904370539</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.75417333333333</v>
+        <v>10.226113</v>
       </c>
       <c r="H9">
-        <v>59.26252</v>
+        <v>30.678339</v>
       </c>
       <c r="I9">
-        <v>0.105674903471837</v>
+        <v>0.05783087330639819</v>
       </c>
       <c r="J9">
-        <v>0.105674903471837</v>
+        <v>0.05783087330639819</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N9">
         <v>11.455626</v>
       </c>
       <c r="O9">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P9">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q9">
-        <v>75.43214054861335</v>
+        <v>39.048841987246</v>
       </c>
       <c r="R9">
-        <v>678.8892649375201</v>
+        <v>351.439577885214</v>
       </c>
       <c r="S9">
-        <v>0.01118130601302422</v>
+        <v>0.006924431574579109</v>
       </c>
       <c r="T9">
-        <v>0.01118130601302422</v>
+        <v>0.006924431574579109</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.75417333333333</v>
+        <v>10.226113</v>
       </c>
       <c r="H10">
-        <v>59.26252</v>
+        <v>30.678339</v>
       </c>
       <c r="I10">
-        <v>0.105674903471837</v>
+        <v>0.05783087330639819</v>
       </c>
       <c r="J10">
-        <v>0.105674903471837</v>
+        <v>0.05783087330639819</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N10">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O10">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P10">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q10">
-        <v>121.4126853036933</v>
+        <v>33.924148170652</v>
       </c>
       <c r="R10">
-        <v>1092.71416773324</v>
+        <v>305.317333535868</v>
       </c>
       <c r="S10">
-        <v>0.01799700205204583</v>
+        <v>0.006015682688113691</v>
       </c>
       <c r="T10">
-        <v>0.01799700205204583</v>
+        <v>0.006015682688113692</v>
       </c>
     </row>
   </sheetData>
